--- a/R/FunctionalResponseDemo (1).xlsx
+++ b/R/FunctionalResponseDemo (1).xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
